--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T18:54:17+00:00</t>
+    <t>2021-11-22T19:27:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>BC Practitioner Qualification Issue Date</t>
+    <t>BC Practitioner Qualification Issue Date Extensino</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T19:27:26+00:00</t>
+    <t>2021-11-22T19:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -667,7 +667,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.19140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="46.7734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T19:57:31+00:00</t>
+    <t>2021-11-22T20:03:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T20:03:31+00:00</t>
+    <t>2021-11-22T20:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T20:11:04+00:00</t>
+    <t>2021-11-22T20:15:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$6</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="106">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T20:15:42+00:00</t>
+    <t>2021-11-22T21:41:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -322,6 +325,9 @@
   </si>
   <si>
     <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t xml:space="preserve">dateTime
@@ -464,6 +470,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -805,7 +826,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -905,7 +926,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>80</v>
       </c>
@@ -1005,7 +1026,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>87</v>
       </c>
@@ -1105,7 +1126,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>94</v>
       </c>
@@ -1217,13 +1238,13 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>75</v>
@@ -1232,13 +1253,13 @@
         <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1301,13 +1322,31 @@
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>99</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AJ6">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI5">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T21:41:13+00:00</t>
+    <t>2021-11-22T22:24:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T22:24:52+00:00</t>
+    <t>2021-11-23T02:50:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-23T02:50:10+00:00</t>
+    <t>2021-11-23T06:12:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-23T06:12:32+00:00</t>
+    <t>2021-12-01T17:57:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T17:57:28+00:00</t>
+    <t>2021-12-01T22:25:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T22:25:03+00:00</t>
+    <t>2022-02-04T17:09:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-04T17:09:38+00:00</t>
+    <t>2022-02-04T17:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-04T17:17:34+00:00</t>
+    <t>2022-02-15T20:19:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-15T20:19:16+00:00</t>
+    <t>2022-02-15T22:18:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-15T22:18:58+00:00</t>
+    <t>2022-02-25T21:32:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T21:32:08+00:00</t>
+    <t>2022-02-25T23:42:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T23:42:21+00:00</t>
+    <t>2022-03-01T22:22:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T22:22:23+00:00</t>
+    <t>2022-03-08T22:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-08T22:00:29+00:00</t>
+    <t>2022-03-08T23:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-08T23:12:25+00:00</t>
+    <t>2022-03-10T19:28:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-10T19:28:49+00:00</t>
+    <t>2022-03-14T17:32:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-14T17:32:26+00:00</t>
+    <t>2022-03-23T21:05:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T21:05:38+00:00</t>
+    <t>2022-04-04T22:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-04T22:47:24+00:00</t>
+    <t>2022-04-04T23:22:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-04T23:22:48+00:00</t>
+    <t>2022-04-05T19:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T19:12:19+00:00</t>
+    <t>2022-04-05T19:27:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T19:27:34+00:00</t>
+    <t>2022-04-05T19:41:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T19:41:50+00:00</t>
+    <t>2022-04-06T13:16:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-06T13:16:59+00:00</t>
+    <t>2022-04-06T16:17:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-06T16:17:08+00:00</t>
+    <t>2022-04-26T19:13:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T19:13:25+00:00</t>
+    <t>2022-05-09T20:12:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T20:12:27+00:00</t>
+    <t>2022-05-10T17:43:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-10T17:43:26+00:00</t>
+    <t>2022-05-11T20:17:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T20:17:39+00:00</t>
+    <t>2022-05-16T21:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T21:00:38+00:00</t>
+    <t>2022-05-18T16:55:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T16:55:23+00:00</t>
+    <t>2022-05-19T15:42:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T15:42:32+00:00</t>
+    <t>2022-05-19T16:14:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T16:14:42+00:00</t>
+    <t>2022-05-19T19:35:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T19:35:11+00:00</t>
+    <t>2022-05-19T22:20:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T22:20:16+00:00</t>
+    <t>2022-05-27T21:15:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T21:15:08+00:00</t>
+    <t>2022-06-02T17:40:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-02T17:40:37+00:00</t>
+    <t>2022-06-07T22:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T22:53:01+00:00</t>
+    <t>2022-06-08T20:49:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-08T20:49:38+00:00</t>
+    <t>2022-06-28T17:55:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
+++ b/StructureDefinition-bc-practitioner-qualification-issue-date-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T17:55:15+00:00</t>
+    <t>2022-06-29T20:55:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
